--- a/Fortuna.xlsx
+++ b/Fortuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57304\Desktop\Monopoly\Juego\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57304\Documents\NewMonopoly\valesVg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE0432-885A-4EB0-892F-775837466C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D65D4DF-4FF8-4261-9F7B-AA4DC4FE3B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4044E16D-FE1C-4241-B2A2-ABD9FF1F9A21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Info</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>jail</t>
-  </si>
-  <si>
-    <t>"Get out of jail free"</t>
   </si>
   <si>
     <t>"Go get your new Car, pay $45"</t>
@@ -93,8 +90,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE1BE37-8486-40BB-A74C-7EA488221227}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,24 +592,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C13">
         <v>45</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>